--- a/data/trans_orig/P57C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5333</v>
+        <v>4869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23167</v>
+        <v>22098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01986519081632473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009686378987736334</v>
+        <v>0.008843441890821771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04207541742081725</v>
+        <v>0.04013361077187062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>4495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1821</v>
+        <v>1831</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9258</v>
+        <v>8578</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.00920272441519541</v>
+        <v>0.009202724415195408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003727479718696771</v>
+        <v>0.003749007306368576</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01895544598084072</v>
+        <v>0.01756252127608176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>15433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8507</v>
+        <v>8680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25321</v>
+        <v>25297</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0148531421650748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008187821413360155</v>
+        <v>0.008354420767053859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02437032707291235</v>
+        <v>0.02434704363818166</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7976</v>
+        <v>7945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24191</v>
+        <v>23530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02541030544786164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01448599982173231</v>
+        <v>0.01442858273031064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04393445575183657</v>
+        <v>0.04273438089875391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>15145</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9706</v>
+        <v>9594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24582</v>
+        <v>24854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03100870280979446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0198732981391941</v>
+        <v>0.0196428685942998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05033097278367256</v>
+        <v>0.05088716274291598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -854,19 +854,19 @@
         <v>29136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20046</v>
+        <v>19659</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40019</v>
+        <v>40622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02804191420435579</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01929317716678056</v>
+        <v>0.01892100110433757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03851606700300645</v>
+        <v>0.03909652686202265</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>59592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46288</v>
+        <v>46664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75315</v>
+        <v>75870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.108228341129973</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08406518482295504</v>
+        <v>0.08474905795882477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1367821379294809</v>
+        <v>0.1377904241671382</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -904,19 +904,19 @@
         <v>45426</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35053</v>
+        <v>35464</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57800</v>
+        <v>57149</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09300844055223177</v>
+        <v>0.09300844055223176</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07176928381988272</v>
+        <v>0.0726110665070946</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1183437606505323</v>
+        <v>0.1170100560060936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -925,19 +925,19 @@
         <v>105019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88338</v>
+        <v>87564</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>126037</v>
+        <v>123688</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1010740037287553</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08501985408971506</v>
+        <v>0.08427447836090962</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1213027638129332</v>
+        <v>0.1190419168077339</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>268080</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>242447</v>
+        <v>244076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290794</v>
+        <v>292684</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4868715572642093</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4403173010995256</v>
+        <v>0.4432756433383551</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5281236545153792</v>
+        <v>0.5315559177115109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>312</v>
@@ -975,19 +975,19 @@
         <v>213743</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195818</v>
+        <v>194247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>233569</v>
+        <v>233460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4376290484481091</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.400928117377279</v>
+        <v>0.3977127237015405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4782221684718412</v>
+        <v>0.4779982557892764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>593</v>
@@ -996,19 +996,19 @@
         <v>481823</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>452778</v>
+        <v>450214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>516239</v>
+        <v>513356</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4637243940647308</v>
+        <v>0.4637243940647307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4357704024834781</v>
+        <v>0.4333024022155063</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4968471267973539</v>
+        <v>0.4940726591633203</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>198016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174046</v>
+        <v>175921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>223112</v>
+        <v>222895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3596246053416314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3160920893603465</v>
+        <v>0.319497109828721</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4052029544906071</v>
+        <v>0.4048086570644065</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -1046,19 +1046,19 @@
         <v>209602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>188953</v>
+        <v>191523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227800</v>
+        <v>229709</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4291510837746693</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3868729591745431</v>
+        <v>0.3921351876414444</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.466409969189549</v>
+        <v>0.470318548499747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>460</v>
@@ -1067,19 +1067,19 @@
         <v>407618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>376894</v>
+        <v>377488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>439275</v>
+        <v>440615</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3923065458370835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3627368807020414</v>
+        <v>0.3633088132024028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4227744272320029</v>
+        <v>0.4240642123262094</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>3058</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8050</v>
+        <v>7665</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006328602471182826</v>
+        <v>0.006328602471182825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001963843679496306</v>
+        <v>0.001970834399415773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01666005500735756</v>
+        <v>0.01586161333222152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1192,19 +1192,19 @@
         <v>4539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1828</v>
+        <v>1994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8285</v>
+        <v>9803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0107278363369054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004319050489074723</v>
+        <v>0.004712726969153429</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01958006875293384</v>
+        <v>0.02316654315346042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1213,19 +1213,19 @@
         <v>7597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3879</v>
+        <v>3869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13220</v>
+        <v>13257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008382438299032945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004279930597063756</v>
+        <v>0.004268867163120491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01458592719121809</v>
+        <v>0.01462626122776774</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>17837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10580</v>
+        <v>10750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29010</v>
+        <v>29672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03691259187291476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02189525475826674</v>
+        <v>0.02224613130469737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06003616585014096</v>
+        <v>0.0614054210022045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1263,19 +1263,19 @@
         <v>18278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12340</v>
+        <v>12716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25976</v>
+        <v>27008</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04319651223454257</v>
+        <v>0.04319651223454258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02916324554339258</v>
+        <v>0.03005131974792737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06138747432492424</v>
+        <v>0.06382827344505071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -1284,19 +1284,19 @@
         <v>36115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25850</v>
+        <v>26463</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48753</v>
+        <v>49105</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03984631651043145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02852044933056858</v>
+        <v>0.02919679906728166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05379044105834038</v>
+        <v>0.05417899138694907</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>51455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39183</v>
+        <v>39636</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65675</v>
+        <v>65236</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1064862171689194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08108811661238798</v>
+        <v>0.08202530172906521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1359123999811024</v>
+        <v>0.1350059269996136</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -1334,19 +1334,19 @@
         <v>42411</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32805</v>
+        <v>32797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53016</v>
+        <v>52687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1002291449204707</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07752784623594446</v>
+        <v>0.07750791463985236</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1252908955677491</v>
+        <v>0.1245136472488957</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -1355,19 +1355,19 @@
         <v>93867</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79887</v>
+        <v>77478</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112411</v>
+        <v>111476</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1035650268995315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08814103001320869</v>
+        <v>0.08548272980823161</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1240250607244627</v>
+        <v>0.1229937044630456</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>226720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>205909</v>
+        <v>205686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>250584</v>
+        <v>250155</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4691929768092411</v>
+        <v>0.469192976809241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4261261261882002</v>
+        <v>0.4256636035816085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5185795666954254</v>
+        <v>0.5176930136866267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>292</v>
@@ -1405,19 +1405,19 @@
         <v>201750</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183092</v>
+        <v>184033</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>218811</v>
+        <v>220100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4767884465459947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4326943266261791</v>
+        <v>0.4349188733484048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5171087314709415</v>
+        <v>0.5201545690878429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>532</v>
@@ -1426,19 +1426,19 @@
         <v>428469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>399296</v>
+        <v>399670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>457677</v>
+        <v>458033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4727390142218563</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4405509133795709</v>
+        <v>0.4409642841436413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5049638912222929</v>
+        <v>0.505357594398674</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>184142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162244</v>
+        <v>160849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205583</v>
+        <v>209505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.381079611677742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.335761765397603</v>
+        <v>0.3328746929292049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4254513675902405</v>
+        <v>0.4335676252565493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -1476,19 +1476,19 @@
         <v>156164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>139111</v>
+        <v>138851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174131</v>
+        <v>173489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3690580599620865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3287566398602479</v>
+        <v>0.3281412578845193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4115180428408953</v>
+        <v>0.4100015189992919</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>357</v>
@@ -1497,19 +1497,19 @@
         <v>340307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>314093</v>
+        <v>310992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>370062</v>
+        <v>368377</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3754672040691479</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3465452595177532</v>
+        <v>0.3431240234404999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4082972804215955</v>
+        <v>0.406437406192007</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>9831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4506</v>
+        <v>4585</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19406</v>
+        <v>18224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02088615724261214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009573219729874132</v>
+        <v>0.009742287586202476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04123077684471638</v>
+        <v>0.03871924485179655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1622,19 +1622,19 @@
         <v>1700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5286</v>
+        <v>4769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009067299308444509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001503668584595651</v>
+        <v>0.001473801847683043</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0281926161853416</v>
+        <v>0.02543678039704108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1643,19 +1643,19 @@
         <v>11531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6460</v>
+        <v>5907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21229</v>
+        <v>20460</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01751926479225416</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009814417572957966</v>
+        <v>0.008974654714862163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03225419031018059</v>
+        <v>0.03108589466217889</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>23020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15097</v>
+        <v>16071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32580</v>
+        <v>32987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04890882018198496</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03207411809221391</v>
+        <v>0.0341442858059004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06921854936787489</v>
+        <v>0.07008462362874317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1693,19 +1693,19 @@
         <v>13790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8787</v>
+        <v>8540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20592</v>
+        <v>20168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07354767401483606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04686245774929958</v>
+        <v>0.04554938400800299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1098276827480377</v>
+        <v>0.1075664033132901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1714,19 +1714,19 @@
         <v>36810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27481</v>
+        <v>28399</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47505</v>
+        <v>47870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0559278038619121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04175258067431733</v>
+        <v>0.04314859910831098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07217617683883104</v>
+        <v>0.07273099337127578</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>49699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38286</v>
+        <v>38367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63968</v>
+        <v>62659</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1055913280376596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08134152501479583</v>
+        <v>0.08151396090623848</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1359059959402224</v>
+        <v>0.133126002779688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -1764,19 +1764,19 @@
         <v>31566</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23471</v>
+        <v>24219</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39530</v>
+        <v>40635</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1683542691467029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1251796693305819</v>
+        <v>0.1291710673983372</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2108286949553356</v>
+        <v>0.2167244929431329</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>117</v>
@@ -1785,19 +1785,19 @@
         <v>81265</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>66253</v>
+        <v>66893</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95990</v>
+        <v>96786</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1234708959078679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1006620587576449</v>
+        <v>0.1016345061923803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1458429808285103</v>
+        <v>0.1470526801139899</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>227689</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204489</v>
+        <v>204633</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>250926</v>
+        <v>251033</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.483748100629557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4344563426012705</v>
+        <v>0.4347632309969541</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5331179598224528</v>
+        <v>0.5333435304161934</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -1835,19 +1835,19 @@
         <v>83015</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72085</v>
+        <v>72042</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94580</v>
+        <v>94257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.442752851090681</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3844587684699429</v>
+        <v>0.3842276529088474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5044366665120819</v>
+        <v>0.5027121111748235</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>373</v>
@@ -1856,19 +1856,19 @@
         <v>310704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>286414</v>
+        <v>285316</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>334909</v>
+        <v>337161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4720695952323513</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4351641796306583</v>
+        <v>0.4334955619735523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5088454670257454</v>
+        <v>0.5122664955470185</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>160438</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138646</v>
+        <v>138817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184583</v>
+        <v>183249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3408655939081863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2945678613136141</v>
+        <v>0.2949300479339495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3921654137138146</v>
+        <v>0.3893308171994747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1906,19 +1906,19 @@
         <v>57426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45770</v>
+        <v>47033</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68527</v>
+        <v>69377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3062779064393355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2441101070556902</v>
+        <v>0.250847168539209</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.36548096963614</v>
+        <v>0.3700175386950948</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>220</v>
@@ -1927,19 +1927,19 @@
         <v>217864</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>191579</v>
+        <v>194704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243943</v>
+        <v>245266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3310124402056144</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2910760965374448</v>
+        <v>0.2958243283507731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3706347141217587</v>
+        <v>0.3726456452855968</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>22618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15416</v>
+        <v>15081</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34248</v>
+        <v>32294</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02002466639106069</v>
+        <v>0.0200246663910607</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01364880298219666</v>
+        <v>0.01335187735926689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03032146755090126</v>
+        <v>0.02859164945356592</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2052,19 +2052,19 @@
         <v>17080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11762</v>
+        <v>11266</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25513</v>
+        <v>25574</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01989982894733523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01370431537010443</v>
+        <v>0.01312643488947481</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02972604405077712</v>
+        <v>0.02979693375676221</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -2073,19 +2073,19 @@
         <v>39698</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30079</v>
+        <v>28876</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52718</v>
+        <v>52389</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01997076413361438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01513173748411352</v>
+        <v>0.01452680678292431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02652103296112202</v>
+        <v>0.02635543621882729</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>70046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56278</v>
+        <v>55618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>85973</v>
+        <v>87482</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06201499263987343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04982595562556104</v>
+        <v>0.04924119472788452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0761160402706097</v>
+        <v>0.07745163875701649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -2123,19 +2123,19 @@
         <v>43355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34174</v>
+        <v>33461</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54620</v>
+        <v>55296</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05051383735070719</v>
+        <v>0.0505138373507072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03981691279804668</v>
+        <v>0.03898569261259809</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06363826469535404</v>
+        <v>0.06442590359857008</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -2144,19 +2144,19 @@
         <v>113401</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>96339</v>
+        <v>96451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>134144</v>
+        <v>134649</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05704902878458945</v>
+        <v>0.05704902878458946</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04846548130154021</v>
+        <v>0.04852177192131373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06748430352719027</v>
+        <v>0.06773835692419754</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>147198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>124958</v>
+        <v>125049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>170676</v>
+        <v>171694</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1303211037834005</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.110631302912049</v>
+        <v>0.1107119981563056</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1511073973630976</v>
+        <v>0.1520088403364779</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>172</v>
@@ -2194,19 +2194,19 @@
         <v>109916</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>93270</v>
+        <v>94030</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>125908</v>
+        <v>125907</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1280646805833748</v>
+        <v>0.1280646805833749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1086698110381188</v>
+        <v>0.1095557256012817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1466969442240047</v>
+        <v>0.1466957717182868</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>338</v>
@@ -2215,19 +2215,19 @@
         <v>257114</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>229950</v>
+        <v>230793</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>285917</v>
+        <v>286471</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1293468263502363</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1156813933888313</v>
+        <v>0.1161058739675269</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1438368855630358</v>
+        <v>0.1441155237371802</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>522877</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>484256</v>
+        <v>487293</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>558331</v>
+        <v>560682</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4629277901470828</v>
+        <v>0.4629277901470829</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4287347107722946</v>
+        <v>0.4314239917725329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4943167193162964</v>
+        <v>0.4963984419333753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>623</v>
@@ -2265,19 +2265,19 @@
         <v>424234</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>397159</v>
+        <v>399470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>445732</v>
+        <v>450777</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4942815152621409</v>
+        <v>0.494281515262141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4627353202996759</v>
+        <v>0.4654286082280424</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5193285499690452</v>
+        <v>0.5252069447831437</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1148</v>
@@ -2286,19 +2286,19 @@
         <v>947111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>902345</v>
+        <v>902813</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>993010</v>
+        <v>995443</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4764656880134437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4539452631335004</v>
+        <v>0.4541807775601165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4995562609041956</v>
+        <v>0.5007800340143884</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>366762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>331419</v>
+        <v>333378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>404882</v>
+        <v>404450</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3247114470385825</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2934211097373858</v>
+        <v>0.2951556004499495</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3584613705379166</v>
+        <v>0.3580787017003573</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>334</v>
@@ -2336,19 +2336,19 @@
         <v>263700</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>242711</v>
+        <v>238875</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>289575</v>
+        <v>287984</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3072401378564418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.282785522700997</v>
+        <v>0.2783163478640935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3373878275292673</v>
+        <v>0.3355342483516462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>644</v>
@@ -2357,19 +2357,19 @@
         <v>630461</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>587306</v>
+        <v>582902</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>673139</v>
+        <v>673889</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3171676927181162</v>
+        <v>0.3171676927181163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2954577678811497</v>
+        <v>0.2932423717123084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3386378643516192</v>
+        <v>0.3390149536046893</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>23025</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15085</v>
+        <v>14930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34129</v>
+        <v>34040</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04064817807235582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02663057375359222</v>
+        <v>0.02635717908654654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06025142094112203</v>
+        <v>0.06009414490179887</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>78</v>
@@ -2482,19 +2482,19 @@
         <v>42325</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33271</v>
+        <v>33543</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56015</v>
+        <v>57184</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05129570369832531</v>
+        <v>0.0512957036983253</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04032254206445142</v>
+        <v>0.04065230767274784</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06788705424025217</v>
+        <v>0.06930350685240884</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -2503,19 +2503,19 @@
         <v>65350</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53715</v>
+        <v>54182</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82795</v>
+        <v>82077</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04696159447405834</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03860029624131735</v>
+        <v>0.0389359957752415</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05949763951820224</v>
+        <v>0.05898129316707953</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>42561</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31969</v>
+        <v>31295</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55853</v>
+        <v>55265</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07513720182487399</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05643854088731454</v>
+        <v>0.05524749719177108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09860349513893747</v>
+        <v>0.0975643903100076</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>143</v>
@@ -2553,19 +2553,19 @@
         <v>82245</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>68569</v>
+        <v>68785</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>95810</v>
+        <v>95064</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0996750580204179</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08310123852427719</v>
+        <v>0.08336333386134841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1161149987285123</v>
+        <v>0.1152117681984181</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2574,19 +2574,19 @@
         <v>124806</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>107388</v>
+        <v>108112</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>142975</v>
+        <v>144029</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0896868454894751</v>
+        <v>0.08968684548947509</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07717058870026289</v>
+        <v>0.07769031356519461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1027437879404898</v>
+        <v>0.103501091458499</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>97024</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>80606</v>
+        <v>79280</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115943</v>
+        <v>116452</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1712864312271214</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1423018309226083</v>
+        <v>0.1399604942798235</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2046864002548663</v>
+        <v>0.2055849493239649</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>261</v>
@@ -2624,19 +2624,19 @@
         <v>161413</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>143499</v>
+        <v>144041</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>181030</v>
+        <v>179875</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1956221599967634</v>
+        <v>0.1956221599967633</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1739111310950612</v>
+        <v>0.1745677738993511</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2193966930754797</v>
+        <v>0.2179969935398131</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>366</v>
@@ -2645,19 +2645,19 @@
         <v>258437</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>231693</v>
+        <v>229841</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>287240</v>
+        <v>283058</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1857162240784208</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.166497288702016</v>
+        <v>0.1651663626993183</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2064140940396338</v>
+        <v>0.2034087561572193</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>230518</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>206054</v>
+        <v>205148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256510</v>
+        <v>256890</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4069563564664955</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3637685442415364</v>
+        <v>0.3621679691568614</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4528428623195287</v>
+        <v>0.4535142567360218</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>534</v>
@@ -2695,19 +2695,19 @@
         <v>342660</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>316968</v>
+        <v>320560</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>362807</v>
+        <v>367856</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.4152812095875507</v>
+        <v>0.4152812095875508</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3841439902094295</v>
+        <v>0.3884972343381039</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4396987908615954</v>
+        <v>0.4458171582046352</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>754</v>
@@ -2716,19 +2716,19 @@
         <v>573177</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>538930</v>
+        <v>540165</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>605376</v>
+        <v>610309</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.4118925516053967</v>
+        <v>0.4118925516053966</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3872820724171011</v>
+        <v>0.3881695341583766</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4350309915510452</v>
+        <v>0.4385755197935099</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>173316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>148946</v>
+        <v>146499</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>201520</v>
+        <v>197416</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3059718324091533</v>
+        <v>0.3059718324091532</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2629501640955378</v>
+        <v>0.2586290932788256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3557635080734207</v>
+        <v>0.3485178730710152</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>266</v>
@@ -2766,19 +2766,19 @@
         <v>196484</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>175814</v>
+        <v>175470</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>219888</v>
+        <v>217670</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2381258686969427</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2130750328153543</v>
+        <v>0.2126579018177325</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2664904360914916</v>
+        <v>0.2638012329669123</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>407</v>
@@ -2787,19 +2787,19 @@
         <v>369800</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>340198</v>
+        <v>334737</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>406309</v>
+        <v>403343</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2657427843526493</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2444704452288023</v>
+        <v>0.2405464709060787</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2919791234384156</v>
+        <v>0.2898477611400659</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5838</v>
+        <v>5238</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006215793130263276</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02460805138192433</v>
+        <v>0.02208188398163798</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>29</v>
@@ -2912,19 +2912,19 @@
         <v>18218</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12358</v>
+        <v>11925</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28524</v>
+        <v>27846</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02170912381921707</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01472594911566149</v>
+        <v>0.01421038272435378</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03398928791459923</v>
+        <v>0.03318098295468871</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -2933,19 +2933,19 @@
         <v>19693</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13876</v>
+        <v>13365</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30851</v>
+        <v>29571</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01829463968268956</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01289076962658912</v>
+        <v>0.01241580442666194</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02866034116442782</v>
+        <v>0.02747095295638976</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>2621</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8059</v>
+        <v>9347</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01104651602383576</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002255926768354693</v>
+        <v>0.002226355674524709</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03397160795631445</v>
+        <v>0.0394010240082622</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>117</v>
@@ -2983,19 +2983,19 @@
         <v>73403</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59785</v>
+        <v>61331</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>88008</v>
+        <v>89419</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08746718427755908</v>
+        <v>0.08746718427755905</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0712404097845024</v>
+        <v>0.07308210691262325</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1048710583640394</v>
+        <v>0.1065520839608094</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>120</v>
@@ -3004,19 +3004,19 @@
         <v>76023</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>62133</v>
+        <v>62128</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>91299</v>
+        <v>92031</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07062528212664138</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05772161659390752</v>
+        <v>0.05771644337211512</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08481703698598715</v>
+        <v>0.08549649714295901</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>19144</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9659</v>
+        <v>9315</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32931</v>
+        <v>32856</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08069782443487269</v>
+        <v>0.08069782443487268</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04071652417723538</v>
+        <v>0.03926594598640058</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.138815227904824</v>
+        <v>0.1384988877479235</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>261</v>
@@ -3054,19 +3054,19 @@
         <v>169930</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149186</v>
+        <v>149745</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>192537</v>
+        <v>191284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2024907812428155</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1777717101905966</v>
+        <v>0.1784377514833382</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2294283850002683</v>
+        <v>0.2279357476350761</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>274</v>
@@ -3075,19 +3075,19 @@
         <v>189074</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>167200</v>
+        <v>164631</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>215441</v>
+        <v>214210</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1756495469523737</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1553283571224858</v>
+        <v>0.1529422566386972</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.200144604274492</v>
+        <v>0.1990003981475789</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>79857</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59652</v>
+        <v>57988</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>105278</v>
+        <v>104308</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3366275036250688</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2514540266596649</v>
+        <v>0.2444409288985686</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4437819455069383</v>
+        <v>0.4396960129960928</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>476</v>
@@ -3125,19 +3125,19 @@
         <v>340882</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>313546</v>
+        <v>313669</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>369850</v>
+        <v>370039</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4061986094872079</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3736245061337857</v>
+        <v>0.3737706706825173</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4407163147535145</v>
+        <v>0.4409414708302062</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>515</v>
@@ -3146,19 +3146,19 @@
         <v>420739</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>388822</v>
+        <v>388763</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>458211</v>
+        <v>462132</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3908662421547069</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3612150688391905</v>
+        <v>0.3611600955492004</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.425677764413002</v>
+        <v>0.4293203771026533</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>134132</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>109355</v>
+        <v>110247</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>157344</v>
+        <v>156647</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5654123627859595</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4609720128501723</v>
+        <v>0.4647295690128609</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6632624802426323</v>
+        <v>0.6603225761747713</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>270</v>
@@ -3196,19 +3196,19 @@
         <v>236767</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>210635</v>
+        <v>212467</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>264651</v>
+        <v>267920</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2821343011732005</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2509945198111465</v>
+        <v>0.2531773144007046</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3153609161131891</v>
+        <v>0.3192557117833595</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>325</v>
@@ -3217,19 +3217,19 @@
         <v>370899</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>330886</v>
+        <v>330649</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>410815</v>
+        <v>405265</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3445642890835885</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3073929650827971</v>
+        <v>0.3071719785515939</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3816467105788971</v>
+        <v>0.3764903622757816</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>70944</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>56315</v>
+        <v>55753</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>90899</v>
+        <v>89865</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02063722176847384</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01638174651335571</v>
+        <v>0.01621834184155802</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02644195700024699</v>
+        <v>0.02614118325134472</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>152</v>
@@ -3342,19 +3342,19 @@
         <v>88358</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>73740</v>
+        <v>74717</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>108118</v>
+        <v>106185</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.02439699842879305</v>
+        <v>0.02439699842879306</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02036075289594388</v>
+        <v>0.02063050170140865</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0298531321309904</v>
+        <v>0.02931931206405698</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>231</v>
@@ -3363,19 +3363,19 @@
         <v>159302</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>138017</v>
+        <v>137942</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>186390</v>
+        <v>182739</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02256610495260653</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01955097302790575</v>
+        <v>0.0195404134371573</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02640331651715771</v>
+        <v>0.02588613324912186</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>170076</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>147472</v>
+        <v>147174</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>198334</v>
+        <v>196311</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.04947399266946596</v>
+        <v>0.04947399266946597</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04289877994468648</v>
+        <v>0.04281191021003231</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05769425512118358</v>
+        <v>0.0571055652878009</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>400</v>
@@ -3413,19 +3413,19 @@
         <v>246216</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>223795</v>
+        <v>221206</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>273760</v>
+        <v>271560</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06798412925508163</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06179353340867337</v>
+        <v>0.06107856358715266</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07558961439646865</v>
+        <v>0.07498224073177279</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>605</v>
@@ -3434,19 +3434,19 @@
         <v>416291</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>380900</v>
+        <v>383840</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>448761</v>
+        <v>451781</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.05897027248119339</v>
+        <v>0.0589702724811934</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05395691274869169</v>
+        <v>0.05437341790779169</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06356984941287817</v>
+        <v>0.06399764370205582</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>424113</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>383672</v>
+        <v>387101</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>462700</v>
+        <v>464128</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1233718720233128</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1116080271451198</v>
+        <v>0.1126053229365385</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.134596607643714</v>
+        <v>0.1350119833853667</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>876</v>
@@ -3484,19 +3484,19 @@
         <v>560663</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>523760</v>
+        <v>521447</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>596911</v>
+        <v>595157</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.154808157844691</v>
+        <v>0.1548081578446911</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.144618783180565</v>
+        <v>0.143980043052867</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1648168801857617</v>
+        <v>0.1643325651755189</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1355</v>
@@ -3505,19 +3505,19 @@
         <v>984776</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>931419</v>
+        <v>931102</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1035884</v>
+        <v>1034757</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1394996712440509</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1319413101692306</v>
+        <v>0.1318964709015017</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1467394294976977</v>
+        <v>0.146579776164968</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>1555741</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1491518</v>
+        <v>1487761</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1613101</v>
+        <v>1616113</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4525557837208037</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4338736086176669</v>
+        <v>0.432780768412952</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4692413519254933</v>
+        <v>0.4701176614356013</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2369</v>
@@ -3555,19 +3555,19 @@
         <v>1606283</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1556363</v>
+        <v>1555245</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1660645</v>
+        <v>1657137</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.4435209291793236</v>
+        <v>0.4435209291793237</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4297370437439577</v>
+        <v>0.4294283743956331</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4585310318481095</v>
+        <v>0.4575625289672001</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3915</v>
@@ -3576,19 +3576,19 @@
         <v>3162024</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3078688</v>
+        <v>3080598</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3247915</v>
+        <v>3248304</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.4479206203665351</v>
+        <v>0.4479206203665352</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4361154826247245</v>
+        <v>0.4363860330016399</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4600875822579082</v>
+        <v>0.4601426948965335</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>1216804</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1155719</v>
+        <v>1156559</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1289493</v>
+        <v>1289709</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3539611298179437</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3361918821639306</v>
+        <v>0.3364361463672135</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3751058189472455</v>
+        <v>0.3751685704925105</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1428</v>
@@ -3626,19 +3626,19 @@
         <v>1120143</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1072448</v>
+        <v>1069644</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1173469</v>
+        <v>1171728</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.3092897852921107</v>
+        <v>0.3092897852921108</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2961202499859046</v>
+        <v>0.2953461779743625</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3240139771025921</v>
+        <v>0.3235330816264377</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2413</v>
@@ -3647,19 +3647,19 @@
         <v>2336948</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2255265</v>
+        <v>2251960</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2430100</v>
+        <v>2418229</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.3310433309556139</v>
+        <v>0.3310433309556141</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3194723878157193</v>
+        <v>0.3190042198777176</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3442388989907568</v>
+        <v>0.3425573233187665</v>
       </c>
     </row>
     <row r="45">
